--- a/historias de usuario_soft2.xlsx
+++ b/historias de usuario_soft2.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w3230\Downloads\New folder\tarea-1-ciclo-2018-0-diaz-rojas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\tarea-1-ciclo-2018-0-diaz-rojas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
+    <sheet name="Connextra" sheetId="2" r:id="rId2"/>
+    <sheet name="Gherkin" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t xml:space="preserve">Juego Damasking: Product Backlog </t>
   </si>
@@ -90,9 +92,6 @@
     <t>ingresar datos personales</t>
   </si>
   <si>
-    <t xml:space="preserve">pagar servicio </t>
-  </si>
-  <si>
     <t>diego</t>
   </si>
   <si>
@@ -121,17 +120,41 @@
   </si>
   <si>
     <t>Se mostrara una lista del grupo de jugadores potencialmente inscritos hasta ese momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como presidente de la comunidad me gustaria que solo miembros de la comunidad puedan ingresar a la aplicación evitando ingresos no autorizados. </t>
+  </si>
+  <si>
+    <t>Como presidente de la comunidad me gustaria que el registro sea realizado por el mismo miembro de la comunidad en la aplicación evitando tener una persona que se dedique a ello manualmente por cada miembro.</t>
+  </si>
+  <si>
+    <t>Como miembro de la comunidad me gustaria saber la inscripcion o cancelacion de un partido evitando tener que revisar la aplicación constantemente.</t>
+  </si>
+  <si>
+    <t>Recibo de notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagar servicio </t>
+  </si>
+  <si>
+    <t>Ingresar datos personales</t>
+  </si>
+  <si>
+    <t>Como administrador del sistema me gustaria que la confirmacion de pago sea de forma automatizada evitando tener que comprobarlo manualmente.</t>
+  </si>
+  <si>
+    <t>Como organizador del partido me gustaria consultar la lista de jugadores en cualquier momento durante el proceso de reserva de la cancha permitiendo tener acceso a la lista previa de participantes cuando desee consultar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _m_k_-;\-* #,##0\ _m_k_-;_-* &quot;-&quot;??\ _m_k_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _m_k_-;\-* #,##0\ _m_k_-;_-* &quot;-&quot;??\ _m_k_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +190,12 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -249,9 +278,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,7 +300,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -322,10 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,13 +360,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -348,7 +383,403 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -847,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:O43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,22 +1305,22 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -935,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
@@ -958,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -980,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>11</v>
@@ -991,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
@@ -1013,10 +1444,10 @@
         <v>6</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -1024,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -1046,10 +1477,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -1057,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -1079,10 +1510,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
@@ -1090,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
@@ -1112,31 +1543,30 @@
         <v>6</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -1144,15 +1574,15 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -1160,95 +1590,60 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="28"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="20"/>
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="28"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="28"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -1256,11 +1651,11 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="28"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -1320,117 +1715,361 @@
   <mergeCells count="1">
     <mergeCell ref="A2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5 K15:L15 A12:A15 A7:B10 B10:B15 K11:N14 G7:J10 A5:H5">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="J5 G7:J10 A5:H5 I5:I6 A12:B13 A7:B10 K12:N13">
+    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="26" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
-      <formula>$C5="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
-      <formula>$C5="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
-      <formula>$C5="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M17">
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
-      <formula>$C16="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
-      <formula>$C16="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
-      <formula>$C16="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N17">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
-      <formula>$C16="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
-      <formula>$C16="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
-      <formula>$C16="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A38">
-    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
-      <formula>$C6="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
-      <formula>$C6="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
-      <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23 A32 A25:A30">
-    <cfRule type="expression" dxfId="5" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="52" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="53" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="54" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="2" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="55" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="56" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="57" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:M11">
+    <cfRule type="expression" dxfId="8" priority="73" stopIfTrue="1">
+      <formula>$B11="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="74" stopIfTrue="1">
+      <formula>$B11="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="75" stopIfTrue="1">
+      <formula>$B11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" stopIfTrue="1" id="{78AE3BC9-B2B2-4368-BB6C-FDACD29421CA}">
+            <xm:f>Connextra!$C4="Done"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor indexed="42"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" stopIfTrue="1" id="{A99B1FA2-FFDE-498B-A388-9429E9BAB624}">
+            <xm:f>Connextra!$C4="Ongoing"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor indexed="43"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="63" stopIfTrue="1" id="{799096E1-1B24-49EC-A7E0-0EB7A50D7FEE}">
+            <xm:f>Connextra!$C4="Removed"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <fgColor indexed="10"/>
+                  <bgColor indexed="65"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K15:L15 K14:N14 M16:N17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B7:G7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+      <formula>$C4="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+      <formula>$C4="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+      <formula>$C4="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+      <formula>$C6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+      <formula>$C6="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+      <formula>$C6="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A8">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+      <formula>$C5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+      <formula>$C5="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+      <formula>$C5="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>$C6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>$C6="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>$C6="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+      <formula>$C4="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>$C4="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>$C4="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A8">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$C5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$C5="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$C5="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>